--- a/design/大小调速记表.xlsx
+++ b/design/大小调速记表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magic\Active\crazy-stave\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8985B6B2-0E64-478C-8C2A-F370AD241DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E9472-0A73-463C-BCDD-4D575833CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{89422CF5-4DF2-4155-AFD7-AB3F2E45F0AF}"/>
   </bookViews>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FCGDAEB / 4152637</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BEADGCF / 7362514</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,6 +157,33 @@
   </si>
   <si>
     <t>大小调谱号速记表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FCGDAEB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 4152637</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +239,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -382,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,73 +445,115 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,7 +873,7 @@
   <dimension ref="B3:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -801,353 +893,353 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
+        <v>2</v>
+      </c>
+      <c r="F9" s="36">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>6</v>
+      </c>
+      <c r="J9" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="37">
+        <v>4</v>
+      </c>
+      <c r="E10" s="38">
+        <v>14</v>
+      </c>
+      <c r="F10" s="39">
+        <v>145</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1245</v>
+      </c>
+      <c r="H10" s="10">
+        <v>12456</v>
+      </c>
+      <c r="I10" s="10">
+        <v>123456</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D14" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="12" t="s">
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="34">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E16" s="35">
+        <v>2</v>
+      </c>
+      <c r="F16" s="36">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="H16" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I16" s="6">
         <v>6</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J16" s="8">
         <v>7</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="37">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8">
-        <v>4</v>
-      </c>
-      <c r="H9" s="8">
-        <v>5</v>
-      </c>
-      <c r="I9" s="8">
-        <v>6</v>
-      </c>
-      <c r="J9" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="13">
-        <v>4</v>
-      </c>
-      <c r="E10" s="13">
-        <v>14</v>
-      </c>
-      <c r="F10" s="13">
-        <v>145</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1245</v>
-      </c>
-      <c r="H10" s="13">
-        <v>12456</v>
-      </c>
-      <c r="I10" s="13">
-        <v>123456</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="E17" s="38">
+        <v>37</v>
+      </c>
+      <c r="F17" s="39">
+        <v>367</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2367</v>
+      </c>
+      <c r="H17" s="10">
+        <v>23567</v>
+      </c>
+      <c r="I17" s="10">
+        <v>123567</v>
+      </c>
+      <c r="J17" s="11">
         <v>1234567</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="22" t="s">
+    <row r="18" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+      <c r="C19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2</v>
-      </c>
-      <c r="F16" s="8">
-        <v>3</v>
-      </c>
-      <c r="G16" s="8">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8">
-        <v>5</v>
-      </c>
-      <c r="I16" s="8">
-        <v>6</v>
-      </c>
-      <c r="J16" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13">
-        <v>7</v>
-      </c>
-      <c r="E17" s="13">
-        <v>37</v>
-      </c>
-      <c r="F17" s="13">
-        <v>367</v>
-      </c>
-      <c r="G17" s="13">
-        <v>2367</v>
-      </c>
-      <c r="H17" s="13">
-        <v>23567</v>
-      </c>
-      <c r="I17" s="13">
-        <v>123567</v>
-      </c>
-      <c r="J17" s="14">
-        <v>1234567</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
